--- a/biology/Botanique/Charmaie/Charmaie.xlsx
+++ b/biology/Botanique/Charmaie/Charmaie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une charmaie ou charmeraie est une forêt ou une plantation de charmes, arbres ou arbustes caducs du genre Carpinus.
 Les charmaies sont fréquemment utilisées comme des groupes d'arbres d'ornements dans les parcs et jardins, et pour constituer des allées (charmilles) et des haies. Elles aiment particulièrement les terrains calcaires et argileux.
